--- a/Analyzed/try6/data_2020.xlsx
+++ b/Analyzed/try6/data_2020.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -503,6 +503,11 @@
           <t>CZcomb</t>
         </is>
       </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>XZcomb</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -547,13 +552,13 @@
         <v>61.93832664966254</v>
       </c>
       <c r="N2">
-        <v>260.9880000000001</v>
+        <v>578.4240000000001</v>
       </c>
       <c r="O2">
-        <v>1439.97</v>
+        <v>-160.03</v>
       </c>
       <c r="P2">
-        <v>482.2133256</v>
+        <v>356.716447793064</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -574,10 +579,10 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -586,13 +591,16 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB2">
         <v>0</v>
       </c>
       <c r="AC2">
         <v>2</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -638,13 +646,13 @@
         <v>56.05857024695796</v>
       </c>
       <c r="N3">
-        <v>86.68800000000002</v>
+        <v>351.7920000000001</v>
       </c>
       <c r="O3">
-        <v>1278.04</v>
+        <v>-171.96</v>
       </c>
       <c r="P3">
-        <v>530.2655063999999</v>
+        <v>427.6882129410337</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -662,28 +670,31 @@
         <v>6</v>
       </c>
       <c r="V3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X3">
         <v>1</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC3">
         <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -729,13 +740,13 @@
         <v>52.68893745595108</v>
       </c>
       <c r="N4">
-        <v>102.76</v>
+        <v>379.96</v>
       </c>
       <c r="O4">
-        <v>1206.72</v>
+        <v>-143.28</v>
       </c>
       <c r="P4">
-        <v>566.0958456</v>
+        <v>470.8194693506413</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -753,10 +764,10 @@
         <v>8</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>1</v>
@@ -765,15 +776,18 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA4">
         <v>1</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
         <v>1</v>
       </c>
     </row>
@@ -820,13 +834,13 @@
         <v>61.53805321979051</v>
       </c>
       <c r="N5">
-        <v>-54.09600000000002</v>
+        <v>361.48</v>
       </c>
       <c r="O5">
-        <v>1182.78</v>
+        <v>-217.22</v>
       </c>
       <c r="P5">
-        <v>504.2889144</v>
+        <v>389.4763054665031</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -844,19 +858,19 @@
         <v>5</v>
       </c>
       <c r="V5">
+        <v>4</v>
+      </c>
+      <c r="W5">
         <v>7</v>
       </c>
-      <c r="W5">
-        <v>5</v>
-      </c>
       <c r="X5">
         <v>1</v>
       </c>
       <c r="Y5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AA5">
         <v>1</v>
@@ -866,6 +880,9 @@
       </c>
       <c r="AC5">
         <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -911,13 +928,13 @@
         <v>70.2733679654152</v>
       </c>
       <c r="N6">
-        <v>-33.15200000000003</v>
+        <v>517.7760000000001</v>
       </c>
       <c r="O6">
-        <v>1315.16</v>
+        <v>-184.84</v>
       </c>
       <c r="P6">
-        <v>472.3994088</v>
+        <v>346.4676977138932</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -935,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X6">
         <v>4</v>
       </c>
       <c r="Y6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z6">
         <v>3</v>
@@ -957,6 +974,9 @@
       </c>
       <c r="AC6">
         <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1002,13 +1022,13 @@
         <v>77.2351675284698</v>
       </c>
       <c r="N7">
-        <v>95.34</v>
+        <v>304.248</v>
       </c>
       <c r="O7">
-        <v>1152.05</v>
+        <v>-147.95</v>
       </c>
       <c r="P7">
-        <v>475.7980608</v>
+        <v>355.6185202648139</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -1026,28 +1046,31 @@
         <v>3</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W7">
         <v>3</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA7">
         <v>1</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC7">
         <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1093,13 +1116,13 @@
         <v>67.54674771564655</v>
       </c>
       <c r="N8">
-        <v>98.86800000000001</v>
+        <v>401.296</v>
       </c>
       <c r="O8">
-        <v>1082.7</v>
+        <v>-167.3</v>
       </c>
       <c r="P8">
-        <v>510.1982208</v>
+        <v>392.7682555294296</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -1117,27 +1140,30 @@
         <v>1</v>
       </c>
       <c r="V8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X8">
         <v>4</v>
       </c>
       <c r="Y8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA8">
         <v>2</v>
       </c>
       <c r="AB8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC8">
+        <v>2</v>
+      </c>
+      <c r="AD8">
         <v>2</v>
       </c>
     </row>
@@ -1184,13 +1210,13 @@
         <v>74.85369901496183</v>
       </c>
       <c r="N9">
-        <v>90.748</v>
+        <v>456.0080000000001</v>
       </c>
       <c r="O9">
-        <v>1222.06</v>
+        <v>-127.94</v>
       </c>
       <c r="P9">
-        <v>475.4090016</v>
+        <v>351.9596585503027</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -1208,28 +1234,31 @@
         <v>4</v>
       </c>
       <c r="V9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="X9">
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AC9">
         <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1275,13 +1304,13 @@
         <v>77.31847271974382</v>
       </c>
       <c r="N10">
-        <v>55.91600000000001</v>
+        <v>304.36</v>
       </c>
       <c r="O10">
-        <v>1262.62</v>
+        <v>-187.38</v>
       </c>
       <c r="P10">
-        <v>485.030916</v>
+        <v>353.9860595375454</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -1299,28 +1328,31 @@
         <v>7</v>
       </c>
       <c r="V10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10">
         <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1366,13 +1398,13 @@
         <v>92.88263513308729</v>
       </c>
       <c r="N11">
-        <v>26.26400000000001</v>
+        <v>363.4400000000001</v>
       </c>
       <c r="O11">
-        <v>1292.05</v>
+        <v>-207.95</v>
       </c>
       <c r="P11">
-        <v>444.901356</v>
+        <v>318.027542751129</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -1390,10 +1422,10 @@
         <v>9</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -1402,16 +1434,19 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11">
         <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
